--- a/Team 4/Zeiterfassung_Team4.xlsx
+++ b/Team 4/Zeiterfassung_Team4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limbamar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kretskev\Documents\DHBW\Semester2\Anwendungsprojekt\PM_Spiel_DHBW18C\Team 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422B91F-ADC5-43D5-A6A2-22F948AFF8FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA537906-6E61-4381-970D-B39A1D85873B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -421,18 +422,19 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,52 +448,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>0.29166666666666702</v>
+        <v>0.625</v>
       </c>
       <c r="C2" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="D2" s="1">
-        <f t="shared" ref="D2:D8" si="0">B2+C2</f>
-        <v>0.82291666666666696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>0.20833333333333301</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C3" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.73958333333333304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0.16666666666666699</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C4" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69791666666666696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -499,14 +498,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333301E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -514,14 +512,13 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="C6" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.86458333333333304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -529,14 +526,13 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C7" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.82291666666666674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -544,15 +540,14 @@
         <v>0.125</v>
       </c>
       <c r="C8" s="1">
-        <v>0.53125</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65625</v>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>